--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_13.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_13.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9849547214540116</v>
+        <v>0.8407234686977931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7749555395655618</v>
+        <v>0.5939522802687019</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7916693131599439</v>
+        <v>0.7273676690441147</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9883330767993516</v>
+        <v>0.8756096088462847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06262637360896087</v>
+        <v>0.3775160614454964</v>
       </c>
       <c r="G2" t="n">
-        <v>1.504873343159546</v>
+        <v>2.715242971521022</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7451867871196011</v>
+        <v>0.9751900396983744</v>
       </c>
       <c r="I2" t="n">
-        <v>0.06126150301639633</v>
+        <v>0.5321368771456721</v>
       </c>
       <c r="J2" t="n">
-        <v>0.5042180045249899</v>
+        <v>1.319592179863605</v>
       </c>
       <c r="K2" t="n">
-        <v>0.2502526195846127</v>
+        <v>0.614423356852176</v>
       </c>
       <c r="L2" t="n">
-        <v>1.962897826943255</v>
+        <v>0.7831128084395481</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2541938481822284</v>
+        <v>0.6240999105245746</v>
       </c>
       <c r="N2" t="n">
-        <v>135.5411375718841</v>
+        <v>35.94828432864533</v>
       </c>
       <c r="O2" t="n">
-        <v>276.8763101151005</v>
+        <v>72.91286791687115</v>
       </c>
     </row>
     <row r="3">
@@ -561,438 +561,438 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9852553929895959</v>
+        <v>0.8384989590138404</v>
       </c>
       <c r="C3" t="n">
-        <v>0.774815818230257</v>
+        <v>0.5877198207891671</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7921083896988566</v>
+        <v>0.7259332460351738</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9885653252602562</v>
+        <v>0.8664100879350085</v>
       </c>
       <c r="F3" t="n">
-        <v>0.06137482031511399</v>
+        <v>0.3827885779152319</v>
       </c>
       <c r="G3" t="n">
-        <v>1.505807660372087</v>
+        <v>2.756919456758509</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7436162357990312</v>
+        <v>0.980320887628731</v>
       </c>
       <c r="I3" t="n">
-        <v>0.06004199642124936</v>
+        <v>0.5714920418296812</v>
       </c>
       <c r="J3" t="n">
-        <v>0.5016612095265679</v>
+        <v>1.342890861951983</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2477394201880556</v>
+        <v>0.6186991012723648</v>
       </c>
       <c r="L3" t="n">
-        <v>1.943654848665865</v>
+        <v>0.7800836888699103</v>
       </c>
       <c r="M3" t="n">
-        <v>0.2516410684074533</v>
+        <v>0.6284429936452051</v>
       </c>
       <c r="N3" t="n">
-        <v>135.5815112410554</v>
+        <v>35.92054491621096</v>
       </c>
       <c r="O3" t="n">
-        <v>276.9166837842719</v>
+        <v>72.88512850443678</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_2</t>
+          <t>model_1_13_9</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9855269393504733</v>
+        <v>0.8208272321479104</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7746674536990787</v>
+        <v>0.5669532325484283</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7924354991120643</v>
+        <v>0.7159460100241235</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9886975798804176</v>
+        <v>0.7605535595015838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06024450133853369</v>
+        <v>0.4246739747833265</v>
       </c>
       <c r="G4" t="n">
-        <v>1.506799774675232</v>
+        <v>2.895785727945675</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7424461843948802</v>
+        <v>1.016044651747041</v>
       </c>
       <c r="I4" t="n">
-        <v>0.05934754453598291</v>
+        <v>1.024341831460415</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4989797943721004</v>
+        <v>1.276954748982603</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2454475531320972</v>
+        <v>0.651670142620733</v>
       </c>
       <c r="L4" t="n">
-        <v>1.926275881569708</v>
+        <v>0.7560200607971546</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2493131067363901</v>
+        <v>0.6619332959358606</v>
       </c>
       <c r="N4" t="n">
-        <v>135.6186879497338</v>
+        <v>35.71286704520059</v>
       </c>
       <c r="O4" t="n">
-        <v>276.9538604929502</v>
+        <v>72.6774506334264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_3</t>
+          <t>model_1_13_8</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9857806959467929</v>
+        <v>0.8209009438532291</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7745274182286167</v>
+        <v>0.5666124307026643</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7927795744318955</v>
+        <v>0.7162440698272445</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9887777770735702</v>
+        <v>0.7612505935019165</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05918823273185655</v>
+        <v>0.4244992638422556</v>
       </c>
       <c r="G5" t="n">
-        <v>1.507736192511016</v>
+        <v>2.898064671457547</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7412154469264778</v>
+        <v>1.014978509113778</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05892643945920081</v>
+        <v>1.021359949236546</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4964227793013194</v>
+        <v>1.285004257414591</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2432863184230806</v>
+        <v>0.6515360802306005</v>
       </c>
       <c r="L5" t="n">
-        <v>1.910035459405258</v>
+        <v>0.7561204341831205</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2471178347411485</v>
+        <v>0.6617971221970967</v>
       </c>
       <c r="N5" t="n">
-        <v>135.6540650565424</v>
+        <v>35.71369001481663</v>
       </c>
       <c r="O5" t="n">
-        <v>276.9892375997588</v>
+        <v>72.67827360304246</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_4</t>
+          <t>model_1_13_7</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9860044523613051</v>
+        <v>0.820929330722279</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7743549000953921</v>
+        <v>0.5633730383538827</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7930057865093577</v>
+        <v>0.718923480327278</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9887611060132389</v>
+        <v>0.7696108765310545</v>
       </c>
       <c r="F6" t="n">
-        <v>0.05825684068286177</v>
+        <v>0.4244319814942983</v>
       </c>
       <c r="G6" t="n">
-        <v>1.508889822062262</v>
+        <v>2.91972650300988</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7404062994419253</v>
+        <v>1.005394413116306</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05901397703832163</v>
+        <v>0.9855950090195651</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4940727598095143</v>
+        <v>1.476803111438843</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2413645389920851</v>
+        <v>0.6514844445528215</v>
       </c>
       <c r="L6" t="n">
-        <v>1.895715048876475</v>
+        <v>0.7561590886431033</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2451657892051895</v>
+        <v>0.6617446733090093</v>
       </c>
       <c r="N6" t="n">
-        <v>135.6857875136316</v>
+        <v>35.71400703624077</v>
       </c>
       <c r="O6" t="n">
-        <v>277.020960056848</v>
+        <v>72.67859062446659</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_5</t>
+          <t>model_1_13_6</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9862103623068189</v>
+        <v>0.8209900302433647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7742304898199978</v>
+        <v>0.5631045144594832</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7932314621641654</v>
+        <v>0.7189988621963797</v>
       </c>
       <c r="E7" t="n">
-        <v>0.988694773733069</v>
+        <v>0.7704301908091092</v>
       </c>
       <c r="F7" t="n">
-        <v>0.05739973503751691</v>
+        <v>0.4242881119364637</v>
       </c>
       <c r="G7" t="n">
-        <v>1.50972175414668</v>
+        <v>2.921522123528169</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7395990707101043</v>
+        <v>1.005124776541421</v>
       </c>
       <c r="I7" t="n">
-        <v>0.05936227925235162</v>
+        <v>0.9820900168953253</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4914189335383993</v>
+        <v>1.483635651359758</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2395824180475623</v>
+        <v>0.6513740184690081</v>
       </c>
       <c r="L7" t="n">
-        <v>1.88253681236359</v>
+        <v>0.7562417433101136</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2433556016372578</v>
+        <v>0.6616325081247614</v>
       </c>
       <c r="N7" t="n">
-        <v>135.7154311834768</v>
+        <v>35.71468509045594</v>
       </c>
       <c r="O7" t="n">
-        <v>277.0506037266932</v>
+        <v>72.67926867868177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_6</t>
+          <t>model_1_13_5</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.986400638860523</v>
+        <v>0.8220767140473881</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7740928367189068</v>
+        <v>0.5610783037442661</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7934669382816535</v>
+        <v>0.7197804716424725</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9885812635848449</v>
+        <v>0.7762602003728331</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0566077038029424</v>
+        <v>0.4217124619874254</v>
       </c>
       <c r="G8" t="n">
-        <v>1.51064224106751</v>
+        <v>2.935071403910667</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7387567862915391</v>
+        <v>1.002329004873066</v>
       </c>
       <c r="I8" t="n">
-        <v>0.05995830634263349</v>
+        <v>0.957149480458426</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4888953439171926</v>
+        <v>1.444251770791456</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2379237352660352</v>
+        <v>0.6493939189640024</v>
       </c>
       <c r="L8" t="n">
-        <v>1.870359112926529</v>
+        <v>0.7577214829581456</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2416707962599961</v>
+        <v>0.6596212240319254</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7432203868849</v>
+        <v>35.726863133764</v>
       </c>
       <c r="O8" t="n">
-        <v>277.0783929301013</v>
+        <v>72.69144672198982</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_7</t>
+          <t>model_1_13_4</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9865632107731692</v>
+        <v>0.8233348698256159</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7739496160644126</v>
+        <v>0.5581953512240907</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7935925207197303</v>
+        <v>0.7199697012794289</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9883766707522352</v>
+        <v>0.7874945926924299</v>
       </c>
       <c r="F9" t="n">
-        <v>0.05593099387639718</v>
+        <v>0.4187303904279925</v>
       </c>
       <c r="G9" t="n">
-        <v>1.511599958243583</v>
+        <v>2.954349720687856</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7383075851922267</v>
+        <v>1.001652141433838</v>
       </c>
       <c r="I9" t="n">
-        <v>0.06103259681463712</v>
+        <v>0.9090892212202988</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4862812542081482</v>
+        <v>1.404335474679158</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2364973443326525</v>
+        <v>0.647093803422651</v>
       </c>
       <c r="L9" t="n">
-        <v>1.85995451051717</v>
+        <v>0.7594347163582855</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2402219410952805</v>
+        <v>0.6572848839700696</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7672732006024</v>
+        <v>35.74105605153608</v>
       </c>
       <c r="O9" t="n">
-        <v>277.1024457438188</v>
+        <v>72.7056396397619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_8</t>
+          <t>model_1_13_2</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9867038881653848</v>
+        <v>0.8243775252509096</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7738321923260765</v>
+        <v>0.5579813475816953</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7936006147734819</v>
+        <v>0.7201845754440745</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9881039218731783</v>
+        <v>0.7972692747136303</v>
       </c>
       <c r="F10" t="n">
-        <v>0.05534542047565925</v>
+        <v>0.416259096217957</v>
       </c>
       <c r="G10" t="n">
-        <v>1.512385171322523</v>
+        <v>2.95578076402995</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7382786332312775</v>
+        <v>1.000883549006021</v>
       </c>
       <c r="I10" t="n">
-        <v>0.06246476586123992</v>
+        <v>0.8672735414269473</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4835995965702436</v>
+        <v>1.38091590166518</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2352560742587941</v>
+        <v>0.6451814444154117</v>
       </c>
       <c r="L10" t="n">
-        <v>1.850951157415373</v>
+        <v>0.7608545024693236</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2389611222585737</v>
+        <v>0.6553424072201239</v>
       </c>
       <c r="N10" t="n">
-        <v>135.7883227216351</v>
+        <v>35.75289477030076</v>
       </c>
       <c r="O10" t="n">
-        <v>277.1234952648516</v>
+        <v>72.71747835852658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_13_9</t>
+          <t>model_1_13_3</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9868313590052601</v>
+        <v>0.8234010152417519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7736950218089902</v>
+        <v>0.557682155413759</v>
       </c>
       <c r="D11" t="n">
-        <v>0.793639437333165</v>
+        <v>0.7199056789714064</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9877989247249962</v>
+        <v>0.789371609717759</v>
       </c>
       <c r="F11" t="n">
-        <v>0.05481481970161056</v>
+        <v>0.4185736130498174</v>
       </c>
       <c r="G11" t="n">
-        <v>1.513302431201891</v>
+        <v>2.957781463434594</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7381397671863522</v>
+        <v>1.001881145517407</v>
       </c>
       <c r="I11" t="n">
-        <v>0.06406626639330096</v>
+        <v>0.9010594210971241</v>
       </c>
       <c r="J11" t="n">
-        <v>0.4812672072280619</v>
+        <v>1.403062144664873</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2341256493885507</v>
+        <v>0.6469726524744438</v>
       </c>
       <c r="L11" t="n">
-        <v>1.842793023663354</v>
+        <v>0.7595247867121728</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2378128943266342</v>
+        <v>0.6571618250155347</v>
       </c>
       <c r="N11" t="n">
-        <v>135.8075893781546</v>
+        <v>35.74180501429922</v>
       </c>
       <c r="O11" t="n">
-        <v>277.142761921371</v>
+        <v>72.70638860252504</v>
       </c>
     </row>
   </sheetData>
